--- a/pyansys_name.xlsx
+++ b/pyansys_name.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\XFEL\FEL4\FEA_Geom\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FEA_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B5D533-7EDD-413F-8D1B-1ECF9E0E7088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F43EAD0-5BBD-45FF-824E-FC8CE281AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -663,23 +663,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08203125" style="1"/>
+    <col min="7" max="7" width="19.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
@@ -696,7 +696,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -740,7 +740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -778,7 +778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -801,7 +801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -839,7 +839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -862,7 +862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -877,7 +877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -900,7 +900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -915,7 +915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -1140,5 +1140,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>